--- a/model_lca/lci_mfh02_new.xlsx
+++ b/model_lca/lci_mfh02_new.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11310" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="mfh02" sheetId="1" r:id="rId1"/>
+    <sheet name="components" sheetId="2" r:id="rId2"/>
     <sheet name="KBOB inventories" sheetId="6" r:id="rId3"/>
     <sheet name="Chart" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'mfh02'!$A$1:$J$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,8 +33,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rhythima Shinde</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+installations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+from model</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+from model</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
   <si>
     <t>MFH02</t>
   </si>
@@ -179,9 +262,6 @@
     <t xml:space="preserve">kg </t>
   </si>
   <si>
-    <t xml:space="preserve">windows </t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
@@ -227,9 +307,6 @@
     <t>Medium density fibreboard (MDF), UF bonded</t>
   </si>
   <si>
-    <t xml:space="preserve">high value </t>
-  </si>
-  <si>
     <t>heating demand</t>
   </si>
   <si>
@@ -244,6 +321,72 @@
   <si>
     <t>electricity</t>
   </si>
+  <si>
+    <t>Exterior Door</t>
+  </si>
+  <si>
+    <t>Exterior Door (U Value)</t>
+  </si>
+  <si>
+    <t>Exterior Door area [m²]</t>
+  </si>
+  <si>
+    <t>Windows 1</t>
+  </si>
+  <si>
+    <t>Windows 1 (U Value)</t>
+  </si>
+  <si>
+    <t>Windows 1 area [m²]</t>
+  </si>
+  <si>
+    <t>Wood, aluminum clad</t>
+  </si>
+  <si>
+    <t>Wood/ aluminium, triple glazing</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Triple glazing, Ug value 0.5 W/m 2K, thickness 36 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 </t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                      </t>
+  </si>
+  <si>
+    <t>accomodation unit</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>Hot water source</t>
+  </si>
+  <si>
+    <t>Hot water consumption</t>
+  </si>
+  <si>
+    <t>wood chips</t>
+  </si>
+  <si>
+    <t>tons of material</t>
+  </si>
+  <si>
+    <t>lorry</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +410,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -304,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -314,6 +470,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,14 +627,14 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1.901</c:v>
+                <c:pt idx="0">
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.87</c:v>
+                <c:pt idx="2">
+                  <c:v>0.52412700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,7 +745,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MFH02 LCA [kg CO</a:t>
+                  <a:t>Operational emissions for MFH02</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[kg CO</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="-25000"/>
@@ -752,932 +922,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Calculated emissions [kgCO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="-25000"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> eq/m</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="30000"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>/year] for MFH02</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21251472281779285"/>
-          <c:y val="2.2617124394184167E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13343095489995974"/>
-          <c:y val="0.11660743134087238"/>
-          <c:w val="0.58569475783422431"/>
-          <c:h val="0.79575006678284765"/>
+          <c:x val="0.16978937007874015"/>
+          <c:y val="4.9217002237136466E-2"/>
+          <c:w val="0.57187729658792641"/>
+          <c:h val="0.78434568162201201"/>
         </c:manualLayout>
       </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Chart!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calculated</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Chart!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Floor</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ceiling</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>External wall</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Internal wall</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Roof</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>windows</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>electricity</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>transport</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>heating demand</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ventilation demand</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hot water</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Chart!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.77110333333333347</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5315150333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2024974999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0967849999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9716871666666673</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9B3-417C-B575-7BFF39FB2399}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredPieSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Chart!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:dPt>
-                  <c:idx val="0"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000017-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="1"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000019-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="2"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000001B-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="3"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000001D-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="4"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000001F-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="5"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000021-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="6"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000023-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="7"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000025-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="8"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000027-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="9"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000029-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="10"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000002B-E6DE-4FE5-82F1-5C5CD0B5D294}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Chart!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>Floor</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Ceiling</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>External wall</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Internal wall</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Roof</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>windows</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>electricity</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>transport</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>heating demand</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>ventilation demand</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>hot water</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Chart!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-B9B3-417C-B575-7BFF39FB2399}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredPieSeries>
-          </c:ext>
-        </c:extLst>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75353356989710407"/>
-          <c:y val="7.512039993385318E-2"/>
-          <c:w val="0.21675770314679749"/>
-          <c:h val="0.89256942236016934"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2025,7 +1282,7 @@
                   <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,7 +1343,7 @@
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.89877283105022843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,7 +1404,7 @@
                   <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.57482544354066778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,13 +1459,13 @@
             <c:numRef>
               <c:f>Chart!$B$10:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="0.000">
+                <c:pt idx="0">
                   <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.901</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +1526,7 @@
                   <c:v>0.76700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,13 +1581,13 @@
             <c:numRef>
               <c:f>Chart!$B$12:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="0.000">
+                <c:pt idx="0">
                   <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87</c:v>
+                  <c:v>0.52412700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,6 +1683,91 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>MFH02 LCA [kg CO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>eq/m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>/year]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2471,7 +1813,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76092979002624661"/>
+          <c:y val="2.9080660219485986E-2"/>
+          <c:w val="0.21425153105861766"/>
+          <c:h val="0.95749652098856786"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2510,12 +1861,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2579,46 +1925,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3162,525 +2468,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4190,15 +2977,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4219,46 +3006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4271,7 +3028,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4293,6 +3050,18 @@
           <cell r="A2" t="str">
             <v xml:space="preserve">12 cm X 16 cm timber frame construction </v>
           </cell>
+          <cell r="H2" t="str">
+            <v>Glued laminated timber, MF bonded, wet area</v>
+          </cell>
+          <cell r="I2">
+            <v>470</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K2">
+            <v>0.48499999999999999</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -4358,192 +3127,313 @@
           <cell r="A6" t="str">
             <v xml:space="preserve">8cm x 12cm timber frame construction with intermediate rock wool insulation </v>
           </cell>
+          <cell r="H6" t="str">
+            <v>Glued laminated timber, MF bonded, wet area</v>
+          </cell>
+          <cell r="I6">
+            <v>470</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K6">
+            <v>0.48499999999999999</v>
+          </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v xml:space="preserve">Adhesive mortar </v>
+          <cell r="H7" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I7">
+            <v>60</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K7">
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Air cavity</v>
+            <v xml:space="preserve">Adhesive mortar </v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>Organic construction adhesive/embedding mortar</v>
+          </cell>
+          <cell r="I8">
+            <v>1670</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K8">
+            <v>0.75800000000000001</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Anhydrite floor</v>
+            <v>Air cavity</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Base plaster</v>
+            <v>Anhydrite floor</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>Underlay anhydrite, 60 mm</v>
+          </cell>
+          <cell r="I10">
+            <v>2000</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K10">
+            <v>8.6999999999999994E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Bitumen sealing</v>
+            <v>Base plaster</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Bitumen waterproofing membrane GV2</v>
-          </cell>
-          <cell r="B12">
-            <v>30</v>
+            <v>Bitumen sealing</v>
           </cell>
           <cell r="H12" t="str">
-            <v>hot bitumen</v>
+            <v>Bitumen emulsion, 1 coat</v>
           </cell>
           <cell r="I12">
-            <v>1000</v>
+            <v>0.25</v>
           </cell>
           <cell r="J12" t="str">
-            <v xml:space="preserve">kg </v>
+            <v xml:space="preserve">m2 </v>
           </cell>
           <cell r="K12">
-            <v>3.06</v>
+            <v>0.70599999999999996</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Bituminous geomembrane</v>
+            <v>Bitumen waterproofing membrane GV2</v>
+          </cell>
+          <cell r="B13">
+            <v>30</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>hot bitumen</v>
+          </cell>
+          <cell r="I13">
+            <v>1000</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K13">
+            <v>3.06</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Bituminous vapour barrier</v>
+            <v>Bituminous geomembrane</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Box beam element with intermediate cellu- lose insulation</v>
+            <v>Bituminous vapour barrier</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Brickwork</v>
+            <v>Box beam element with intermediate cellu- lose insulation</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Brickwork (concrete brick)</v>
+            <v>Brickwork</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>brick</v>
+          </cell>
+          <cell r="I17">
+            <v>900</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K17">
+            <v>0.25800000000000001</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v xml:space="preserve">Cellulose fibres injected  </v>
+            <v>Brickwork (concrete brick)</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>concrete brick</v>
+          </cell>
+          <cell r="I18">
+            <v>2300</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K18">
+            <v>0.217</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v xml:space="preserve">cellulose insulation, timber ratio 6% </v>
+            <v xml:space="preserve">Cellulose fibres injected  </v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>cellulose fibers</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v xml:space="preserve">35-60 </v>
+          </cell>
+          <cell r="J19" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K19">
+            <v>0.25700000000000001</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Cement cast plaster floor</v>
-          </cell>
-          <cell r="B20">
-            <v>30</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>Cement subfloor, 85 mm</v>
-          </cell>
-          <cell r="I20">
-            <v>1850</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K20">
-            <v>0.125</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Cement mortar</v>
+            <v xml:space="preserve">cellulose insulation, timber ratio 6% </v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Cement slates</v>
+            <v>Cement cast plaster floor</v>
+          </cell>
+          <cell r="B22">
+            <v>30</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>Cement subfloor, 85 mm</v>
+          </cell>
+          <cell r="I22">
+            <v>1850</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K22">
+            <v>0.125</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Ceramics</v>
+            <v>Cement mortar</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Cladding of solid Spruce / Fir / Larch</v>
+            <v>Cement slates</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v xml:space="preserve">Clinker quarter brick </v>
+            <v>Ceramics</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>ceramic/stoneware plate</v>
+          </cell>
+          <cell r="I25">
+            <v>2600</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K25">
+            <v>0.77700000000000002</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v xml:space="preserve">Coating + polystyrene (XPS) (30 kg/m³) </v>
+            <v>Cladding of solid Spruce / Fir / Larch</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Concrete 8 / 10 (lean concrete)</v>
+            <v xml:space="preserve">Clinker quarter brick </v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>clay bricks</v>
+          </cell>
+          <cell r="I27">
+            <v>1700</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K27">
+            <v>0.375</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Concrete bond</v>
+            <v xml:space="preserve">Coating + polystyrene (XPS) (30 kg/m³) </v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>Polystyrene extruded (XPS)</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v xml:space="preserve">30-35 </v>
+          </cell>
+          <cell r="J28" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K28">
+            <v>14.5</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Concrete C 8 / 10 (lean concrete)</v>
+            <v>Concrete 8 / 10 (lean concrete)</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>lean concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I29">
+            <v>2150</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K29">
+            <v>5.8999999999999997E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Concrete floor slab (Fe 80 kg/m³)</v>
-          </cell>
-          <cell r="B30">
-            <v>60</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>civil engineering concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I30">
-            <v>2350</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K30">
-            <v>1.4E-2</v>
+            <v>Concrete bond</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="B31">
-            <v>60</v>
+          <cell r="A31" t="str">
+            <v>Concrete C 8 / 10 (lean concrete)</v>
           </cell>
           <cell r="H31" t="str">
-            <v>reinforcement steel</v>
+            <v>lean concrete (without reinforcement)</v>
           </cell>
           <cell r="I31">
-            <v>80</v>
+            <v>2150</v>
           </cell>
           <cell r="J31" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K31">
-            <v>0.68200000000000005</v>
+            <v>5.8999999999999997E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Concrete slab (FE 80 kg/m³)</v>
+            <v>Concrete floor slab (Fe 80 kg/m³)</v>
           </cell>
           <cell r="B32">
             <v>60</v>
@@ -4580,7 +3470,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Concrete slabs</v>
+            <v>Concrete slab (FE 80 kg/m³)</v>
           </cell>
           <cell r="B34">
             <v>60</v>
@@ -4617,7 +3507,7 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Concrete wall (FE 60 kg/m³)</v>
+            <v>Concrete slabs</v>
           </cell>
           <cell r="B36">
             <v>60</v>
@@ -4654,7 +3544,7 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Concrete wall (FE 80 kg/m³)</v>
+            <v>Concrete wall (FE 60 kg/m³)</v>
           </cell>
           <cell r="B38">
             <v>60</v>
@@ -4691,72 +3581,69 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Drainage slab (poor concrete)</v>
+            <v>Concrete wall (FE 80 kg/m³)</v>
           </cell>
           <cell r="B40">
-            <v>30</v>
+            <v>60</v>
           </cell>
           <cell r="H40" t="str">
-            <v>lean concrete (without reinforcement)</v>
+            <v>civil engineering concrete (without reinforcement)</v>
           </cell>
           <cell r="I40">
-            <v>2150</v>
+            <v>2350</v>
           </cell>
           <cell r="J40" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K40">
-            <v>5.8999999999999997E-2</v>
+            <v>1.4E-2</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="A41" t="str">
-            <v>Edge-glued timber floor</v>
+          <cell r="B41">
+            <v>60</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I41">
+            <v>80</v>
+          </cell>
+          <cell r="J41" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K41">
+            <v>0.68200000000000005</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Expanded polystyrene (EPS) (15 kg/m³)</v>
+            <v>Drainage slab (poor concrete)</v>
           </cell>
           <cell r="B42">
             <v>30</v>
           </cell>
           <cell r="H42" t="str">
-            <v>Expanded polystyrene (EPS)</v>
+            <v>lean concrete (without reinforcement)</v>
           </cell>
           <cell r="I42">
-            <v>15</v>
+            <v>2150</v>
           </cell>
           <cell r="J42" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K42">
-            <v>7.64</v>
+            <v>5.8999999999999997E-2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Expanded polystyrene (EPS) (30 kg/m³)</v>
-          </cell>
-          <cell r="B43">
-            <v>30</v>
-          </cell>
-          <cell r="H43" t="str">
-            <v>Expanded polystyrene (EPS)</v>
-          </cell>
-          <cell r="I43">
-            <v>30</v>
-          </cell>
-          <cell r="J43" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K43">
-            <v>7.64</v>
+            <v>Edge-glued timber floor</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Expanded polystyrene (EPS) (35 kg/m³)</v>
+            <v>Expanded polystyrene (EPS) (15 kg/m³)</v>
           </cell>
           <cell r="B44">
             <v>30</v>
@@ -4765,7 +3652,7 @@
             <v>Expanded polystyrene (EPS)</v>
           </cell>
           <cell r="I44">
-            <v>35</v>
+            <v>15</v>
           </cell>
           <cell r="J44" t="str">
             <v xml:space="preserve">kg </v>
@@ -4776,13 +3663,13 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Extruded polystyrene (XPS) (30 kg/m³)</v>
+            <v>Expanded polystyrene (EPS) (30 kg/m³)</v>
           </cell>
           <cell r="B45">
             <v>30</v>
           </cell>
           <cell r="H45" t="str">
-            <v>Polystyrene extruded (XPS)</v>
+            <v>Expanded polystyrene (EPS)</v>
           </cell>
           <cell r="I45">
             <v>30</v>
@@ -4791,18 +3678,18 @@
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K45">
-            <v>14.5</v>
+            <v>7.64</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Extruded polystyrene (XPS) (35 kg/m³)</v>
+            <v>Expanded polystyrene (EPS) (35 kg/m³)</v>
           </cell>
           <cell r="B46">
             <v>30</v>
           </cell>
           <cell r="H46" t="str">
-            <v>Polystyrene extruded (XPS)</v>
+            <v>Expanded polystyrene (EPS)</v>
           </cell>
           <cell r="I46">
             <v>35</v>
@@ -4811,610 +3698,734 @@
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K46">
-            <v>14.5</v>
+            <v>7.64</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Fibre board</v>
+            <v>Extruded polystyrene (XPS) (30 kg/m³)</v>
           </cell>
           <cell r="B47">
             <v>30</v>
           </cell>
           <cell r="H47" t="str">
-            <v>Medium density fibreboard (MDF), UF bonded</v>
+            <v>Polystyrene extruded (XPS)</v>
           </cell>
           <cell r="I47">
-            <v>685</v>
+            <v>30</v>
           </cell>
           <cell r="J47" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K47">
-            <v>1.04</v>
+            <v>14.5</v>
           </cell>
         </row>
         <row r="48">
+          <cell r="A48" t="str">
+            <v>Extruded polystyrene (XPS) (35 kg/m³)</v>
+          </cell>
+          <cell r="B48">
+            <v>30</v>
+          </cell>
           <cell r="H48" t="str">
-            <v>rockwool</v>
+            <v>Polystyrene extruded (XPS)</v>
           </cell>
           <cell r="I48">
-            <v>60</v>
+            <v>35</v>
           </cell>
           <cell r="J48" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K48">
-            <v>1.1299999999999999</v>
+            <v>14.5</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v xml:space="preserve">Fibre board Polypropylene sheet </v>
+            <v>Fibre board</v>
           </cell>
           <cell r="B49">
             <v>30</v>
           </cell>
           <cell r="H49" t="str">
-            <v>Polypropylene (PP)</v>
+            <v>Medium density fibreboard (MDF), UF bonded</v>
           </cell>
           <cell r="I49">
-            <v>910</v>
+            <v>685</v>
           </cell>
           <cell r="J49" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K49">
-            <v>5.43</v>
+            <v>1.04</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="A50" t="str">
-            <v>Fibre board soft</v>
+          <cell r="H50" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I50">
+            <v>60</v>
+          </cell>
+          <cell r="J50" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K50">
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Fibre board, emission-free ("Living board")</v>
+            <v xml:space="preserve">Fibre board Polypropylene sheet </v>
+          </cell>
+          <cell r="B51">
+            <v>30</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>Polypropylene (PP)</v>
+          </cell>
+          <cell r="I51">
+            <v>910</v>
+          </cell>
+          <cell r="J51" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K51">
+            <v>5.43</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>Fibre cement board</v>
+            <v>Fibre board soft</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>Fibre cement facing tile</v>
+            <v>Fibre board, emission-free ("Living board")</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>Fibre cement roof slate</v>
+            <v>Fibre cement board</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>Flagstone in a bed of crushed stones</v>
+            <v>Fibre cement facing tile</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>Flagstones</v>
+            <v>Fibre cement roof slate</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>Floor slab element of plywood</v>
+            <v>Flagstone in a bed of crushed stones</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>Floor slab element of plywood filled with crushed stones</v>
+            <v>Flagstones</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Floor slab element of plywood with intermediate rock wool insulation</v>
+            <v>Floor slab element of plywood</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Flooring of polyurethane (PU)</v>
+            <v>Floor slab element of plywood filled with crushed stones</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Foam glass</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>Galvanized sheet steel</v>
+            <v>Floor slab element of plywood with intermediate rock wool insulation</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v xml:space="preserve">Glass wool mat </v>
+            <v>Flooring of polyurethane (PU)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Glass wool mat (30 kg/m³)</v>
+            <v>Foam glass</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>foam glass</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v xml:space="preserve">100-165 </v>
+          </cell>
+          <cell r="J64" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K64">
+            <v>1.17</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v xml:space="preserve">Glued laminated timber frame construction with intermediate rock wool (60 kg/m³) </v>
-          </cell>
-          <cell r="B65">
-            <v>30</v>
+            <v>Galvanized sheet steel</v>
           </cell>
           <cell r="H65" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
+            <v>Galvanized steel sheet</v>
           </cell>
           <cell r="I65">
-            <v>470</v>
+            <v>7850</v>
           </cell>
           <cell r="J65" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K65">
-            <v>0.44600000000000001</v>
+            <v>3.51</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v xml:space="preserve">Gradient insulation EPS 40-140 mm </v>
+            <v xml:space="preserve">Glass wool mat </v>
+          </cell>
+          <cell r="H66" t="str">
+            <v>glass wool</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v xml:space="preserve">20-100 </v>
+          </cell>
+          <cell r="J66" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K66">
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Granite floor slabs (mottled and brush-finished) in mortar bedding</v>
+            <v>Glass wool mat (30 kg/m³)</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v>glass wool</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v xml:space="preserve">20-100 </v>
+          </cell>
+          <cell r="J67" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K67">
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Gravel</v>
+            <v xml:space="preserve">Glued laminated timber frame construction with intermediate rock wool (60 kg/m³) </v>
+          </cell>
+          <cell r="B68">
+            <v>30</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I68">
+            <v>470</v>
+          </cell>
+          <cell r="J68" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K68">
+            <v>0.44600000000000001</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Gravel Non-woven filter (PE)</v>
+            <v xml:space="preserve">Gradient insulation EPS 40-140 mm </v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Gypsum fibre board</v>
+            <v>Granite floor slabs (mottled and brush-finished) in mortar bedding</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v xml:space="preserve">Gypsum fibre board screed (Fermacell) </v>
+            <v>Gravel</v>
+          </cell>
+          <cell r="H71" t="str">
+            <v>broken gravel</v>
+          </cell>
+          <cell r="I71">
+            <v>2000</v>
+          </cell>
+          <cell r="J71" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K71">
+            <v>1.2999999999999999E-2</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Gypsum plaster</v>
-          </cell>
-          <cell r="B72">
-            <v>30</v>
-          </cell>
-          <cell r="H72" t="str">
-            <v>gypsum-lime plaster</v>
-          </cell>
-          <cell r="I72">
-            <v>925</v>
-          </cell>
-          <cell r="J72" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K72">
-            <v>0.155</v>
+            <v>Gravel Non-woven filter (PE)</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Gypsum plaster board</v>
-          </cell>
-          <cell r="B73">
-            <v>30</v>
-          </cell>
-          <cell r="H73" t="str">
-            <v>gypsum-lime plaster</v>
-          </cell>
-          <cell r="I73">
-            <v>925</v>
-          </cell>
-          <cell r="J73" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K73">
-            <v>0.155</v>
+            <v>Gypsum fibre board</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v xml:space="preserve">Gypsum plaster board 12cm x 17.5cm </v>
-          </cell>
-          <cell r="B74">
-            <v>30</v>
-          </cell>
-          <cell r="H74" t="str">
-            <v>gypsum-lime plaster</v>
-          </cell>
-          <cell r="I74">
-            <v>925</v>
-          </cell>
-          <cell r="J74" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K74">
-            <v>0.155</v>
+            <v xml:space="preserve">Gypsum fibre board screed (Fermacell) </v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>(White) gypsum plaster, painted</v>
+            <v>Gypsum plaster</v>
+          </cell>
+          <cell r="B75">
+            <v>30</v>
+          </cell>
+          <cell r="H75" t="str">
+            <v>gypsum-lime plaster</v>
+          </cell>
+          <cell r="I75">
+            <v>925</v>
+          </cell>
+          <cell r="J75" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K75">
+            <v>0.155</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Hard fibre board</v>
+            <v>Gypsum plaster board</v>
+          </cell>
+          <cell r="B76">
+            <v>30</v>
+          </cell>
+          <cell r="H76" t="str">
+            <v>gypsum-lime plaster</v>
+          </cell>
+          <cell r="I76">
+            <v>925</v>
+          </cell>
+          <cell r="J76" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K76">
+            <v>0.155</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Insulating fibre board</v>
+            <v xml:space="preserve">Gypsum plaster board 12cm x 17.5cm </v>
+          </cell>
+          <cell r="B77">
+            <v>30</v>
+          </cell>
+          <cell r="H77" t="str">
+            <v>gypsum-lime plaster</v>
+          </cell>
+          <cell r="I77">
+            <v>925</v>
+          </cell>
+          <cell r="J77" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K77">
+            <v>0.155</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>insulation (glass wool) (30 kg/m³)</v>
+            <v>(White) gypsum plaster, painted</v>
           </cell>
           <cell r="H78" t="str">
-            <v>glass wool</v>
-          </cell>
-          <cell r="I78" t="str">
-            <v xml:space="preserve">20-100 </v>
+            <v>gypsum/white plaster</v>
+          </cell>
+          <cell r="I78">
+            <v>1100</v>
           </cell>
           <cell r="J78" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K78">
-            <v>1.1299999999999999</v>
+            <v>0.14699999999999999</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Insulation (recycled glass foam fill)</v>
-          </cell>
-          <cell r="B79">
-            <v>60</v>
-          </cell>
-          <cell r="H79" t="str">
-            <v>foam glass gravel</v>
-          </cell>
-          <cell r="I79" t="str">
-            <v xml:space="preserve">125-150 </v>
-          </cell>
-          <cell r="J79" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K79">
-            <v>0.155</v>
+            <v>Hard fibre board</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Insulation of Polyurethane (PU)</v>
+            <v>Insulating fibre board</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Large scale timber board (GFP)</v>
+            <v>insulation (glass wool) (30 kg/m³)</v>
+          </cell>
+          <cell r="H81" t="str">
+            <v>glass wool</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v xml:space="preserve">20-100 </v>
+          </cell>
+          <cell r="J81" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K81">
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Lean concrete</v>
+            <v>Insulation (recycled glass foam fill)</v>
+          </cell>
+          <cell r="B82">
+            <v>60</v>
+          </cell>
+          <cell r="H82" t="str">
+            <v>foam glass gravel</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v xml:space="preserve">125-150 </v>
+          </cell>
+          <cell r="J82" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K82">
+            <v>0.155</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Lime plaster</v>
+            <v>Insulation of Polyurethane (PU)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Linoleum</v>
+            <v>Large scale timber board (GFP)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Log wood panel with 0.26 m rock wool</v>
-          </cell>
-          <cell r="B85">
-            <v>30</v>
+            <v>Lean concrete</v>
           </cell>
           <cell r="H85" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
+            <v>lean concrete (without reinforcement)</v>
           </cell>
           <cell r="I85">
-            <v>470</v>
+            <v>2150</v>
           </cell>
           <cell r="J85" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K85">
-            <v>0.44600000000000001</v>
+            <v>5.8999999999999997E-2</v>
           </cell>
         </row>
         <row r="86">
-          <cell r="B86">
-            <v>30</v>
+          <cell r="A86" t="str">
+            <v>Lime plaster</v>
           </cell>
           <cell r="H86" t="str">
-            <v>rockwool</v>
+            <v>Lime-cement/cement-lime plaster</v>
           </cell>
           <cell r="I86">
-            <v>60</v>
+            <v>1550</v>
           </cell>
           <cell r="J86" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K86">
-            <v>1.1299999999999999</v>
+            <v>0.247</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v xml:space="preserve">Log wood panel with 6 cm insulation (glass wool) (30 kg/m³) </v>
+            <v>Linoleum</v>
+          </cell>
+          <cell r="H87" t="str">
+            <v>Linoleum, 2.5mm</v>
+          </cell>
+          <cell r="I87">
+            <v>2.9</v>
+          </cell>
+          <cell r="J87" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K87">
+            <v>6.36</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Masonry-BN (standard brick)</v>
+            <v>Log wood panel with 0.26 m rock wool</v>
+          </cell>
+          <cell r="B88">
+            <v>30</v>
+          </cell>
+          <cell r="H88" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I88">
+            <v>470</v>
+          </cell>
+          <cell r="J88" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K88">
+            <v>0.44600000000000001</v>
           </cell>
         </row>
         <row r="89">
-          <cell r="A89" t="str">
-            <v>Mastic asphalt</v>
+          <cell r="B89">
+            <v>30</v>
+          </cell>
+          <cell r="H89" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I89">
+            <v>60</v>
+          </cell>
+          <cell r="J89" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K89">
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Medium density fibre board (DWD)</v>
+            <v xml:space="preserve">Log wood panel with 6 cm insulation (glass wool) (30 kg/m³) </v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v xml:space="preserve">Metal frame construction </v>
+            <v>Masonry-BN (standard brick)</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Metal frame construction with intermediate rock wool insulation</v>
+            <v>Mastic asphalt</v>
+          </cell>
+          <cell r="H92" t="str">
+            <v>Mastic asphalt, 27.5 mm</v>
+          </cell>
+          <cell r="I92">
+            <v>63.3</v>
+          </cell>
+          <cell r="J92" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K92">
+            <v>14.1</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Metal frame construction with rock wool insulation</v>
+            <v>Medium density fibre board (DWD)</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>Metal sheets</v>
+            <v xml:space="preserve">Metal frame construction </v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v xml:space="preserve">Metal stud construction with intermediate rock wool insulation </v>
+            <v>Metal frame construction with intermediate rock wool insulation</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>Metal, glass insert</v>
+            <v>Metal frame construction with rock wool insulation</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>Mineral fibre board</v>
+            <v>Metal sheets</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>Mineral plaster</v>
+            <v xml:space="preserve">Metal stud construction with intermediate rock wool insulation </v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>Non-woven filter (PE)</v>
-          </cell>
-          <cell r="B99">
-            <v>30</v>
-          </cell>
-          <cell r="H99" t="str">
-            <v>Polyethylene fleece (PE)</v>
-          </cell>
-          <cell r="I99">
-            <v>920</v>
-          </cell>
-          <cell r="J99" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K99">
-            <v>5.53</v>
+            <v>Metal, glass insert</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Non-woven polyethylene (PE)</v>
-          </cell>
-          <cell r="B100">
-            <v>30</v>
-          </cell>
-          <cell r="H100" t="str">
-            <v>Polyethylene fleece (PE)</v>
-          </cell>
-          <cell r="I100">
-            <v>920</v>
-          </cell>
-          <cell r="J100" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K100">
-            <v>5.53</v>
+            <v>Mineral fibre board</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Oriented Strand Board (OSB)</v>
+            <v>Mineral plaster</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Particle board, emission-free ("Living board")</v>
+            <v>Non-woven filter (PE)</v>
+          </cell>
+          <cell r="B102">
+            <v>30</v>
+          </cell>
+          <cell r="H102" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I102">
+            <v>920</v>
+          </cell>
+          <cell r="J102" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K102">
+            <v>5.53</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Permeable fibre board (DHF)</v>
+            <v>Non-woven polyethylene (PE)</v>
+          </cell>
+          <cell r="B103">
+            <v>30</v>
+          </cell>
+          <cell r="H103" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I103">
+            <v>920</v>
+          </cell>
+          <cell r="J103" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K103">
+            <v>5.53</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Phenolic foam (PF) (15 kg/m³)</v>
+            <v>Oriented Strand Board (OSB)</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Polypropylene fleece (PP)</v>
+            <v>Particle board, emission-free ("Living board")</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Polyurethane (PUR / PIR) (30 kg/m³)</v>
-          </cell>
-          <cell r="B106">
-            <v>30</v>
-          </cell>
-          <cell r="H106" t="str">
-            <v>Polyurethane (PUR/PIR)</v>
-          </cell>
-          <cell r="I106">
-            <v>30</v>
-          </cell>
-          <cell r="J106" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K106">
-            <v>7.52</v>
+            <v>Permeable fibre board (DHF)</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Polyurethane foam (PU) (30 kg/m³)</v>
+            <v>Phenolic foam (PF) (15 kg/m³)</v>
+          </cell>
+          <cell r="H107" t="str">
+            <v>phenolic resin (PF)</v>
+          </cell>
+          <cell r="I107">
+            <v>40</v>
+          </cell>
+          <cell r="J107" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K107">
+            <v>6.23</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>Poor concrete</v>
+            <v>Polypropylene fleece (PP)</v>
+          </cell>
+          <cell r="H108" t="str">
+            <v>Polypropylene (PP)</v>
+          </cell>
+          <cell r="I108">
+            <v>910</v>
+          </cell>
+          <cell r="J108" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K108">
+            <v>5.43</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>Protective drainage layer made of PE</v>
+            <v>Polyurethane (PUR / PIR) (30 kg/m³)</v>
+          </cell>
+          <cell r="B109">
+            <v>30</v>
+          </cell>
+          <cell r="H109" t="str">
+            <v>Polyurethane (PUR/PIR)</v>
+          </cell>
+          <cell r="I109">
+            <v>30</v>
+          </cell>
+          <cell r="J109" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K109">
+            <v>7.52</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>Protective Layer (PE)</v>
+            <v>Polyurethane foam (PU) (30 kg/m³)</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>Protective sheet of rubber granulate</v>
+            <v>Poor concrete</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>Rafters (10/14)</v>
+            <v>Protective drainage layer made of PE</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>Rafters with cellulose insulation</v>
+            <v>Protective Layer (PE)</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>Reinforced concrete (m³)</v>
+            <v>Protective sheet of rubber granulate</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>Rock wool (100 kg/m³)</v>
-          </cell>
-          <cell r="B115">
-            <v>30</v>
-          </cell>
-          <cell r="H115" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I115">
-            <v>100</v>
-          </cell>
-          <cell r="J115" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K115">
-            <v>1.1299999999999999</v>
+            <v>Rafters (10/14)</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>Rock wool (60 kg/m³)</v>
-          </cell>
-          <cell r="B116">
-            <v>30</v>
-          </cell>
-          <cell r="H116" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I116">
-            <v>60</v>
-          </cell>
-          <cell r="J116" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K116">
-            <v>1.1299999999999999</v>
+            <v>Rafters with cellulose insulation</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>Rock wool insulation</v>
-          </cell>
-          <cell r="B117">
-            <v>30</v>
-          </cell>
-          <cell r="H117" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I117" t="str">
-            <v xml:space="preserve">32-160 </v>
-          </cell>
-          <cell r="J117" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K117">
-            <v>1.1299999999999999</v>
+            <v>Reinforced concrete (m³)</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>Rock wool slab (160 kg/m³)</v>
+            <v>Rock wool (100 kg/m³)</v>
           </cell>
           <cell r="B118">
             <v>30</v>
@@ -5423,7 +4434,7 @@
             <v>rockwool</v>
           </cell>
           <cell r="I118">
-            <v>160</v>
+            <v>100</v>
           </cell>
           <cell r="J118" t="str">
             <v xml:space="preserve">kg </v>
@@ -5434,7 +4445,7 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>Rockwool insulation (60 kg/m³)</v>
+            <v>Rock wool (60 kg/m³)</v>
           </cell>
           <cell r="B119">
             <v>30</v>
@@ -5454,250 +4465,262 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>Sand</v>
+            <v>Rock wool insulation</v>
           </cell>
           <cell r="B120">
             <v>30</v>
           </cell>
           <cell r="H120" t="str">
-            <v>sand</v>
-          </cell>
-          <cell r="I120">
-            <v>2000</v>
+            <v>rockwool</v>
+          </cell>
+          <cell r="I120" t="str">
+            <v xml:space="preserve">32-160 </v>
           </cell>
           <cell r="J120" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K120">
-            <v>1.4E-2</v>
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>Sand filling</v>
+            <v>Rock wool slab (160 kg/m³)</v>
           </cell>
           <cell r="B121">
             <v>30</v>
           </cell>
           <cell r="H121" t="str">
-            <v>sand</v>
+            <v>rockwool</v>
           </cell>
           <cell r="I121">
-            <v>2000</v>
+            <v>160</v>
           </cell>
           <cell r="J121" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K121">
-            <v>1.4E-2</v>
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>Sand lime brick</v>
+            <v>Rockwool insulation (60 kg/m³)</v>
           </cell>
           <cell r="B122">
+            <v>30</v>
+          </cell>
+          <cell r="H122" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I122">
             <v>60</v>
           </cell>
-          <cell r="H122" t="str">
-            <v>sand-lime brick</v>
-          </cell>
-          <cell r="I122">
-            <v>1400</v>
-          </cell>
           <cell r="J122" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K122">
-            <v>0.13800000000000001</v>
+            <v>1.1299999999999999</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>Sand-lime brick</v>
+            <v>Sand</v>
           </cell>
           <cell r="B123">
-            <v>60</v>
+            <v>30</v>
           </cell>
           <cell r="H123" t="str">
-            <v>sand-lime brick</v>
+            <v>sand</v>
           </cell>
           <cell r="I123">
-            <v>1400</v>
+            <v>2000</v>
           </cell>
           <cell r="J123" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K123">
-            <v>0.13800000000000001</v>
+            <v>1.4E-2</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>Solid Oak (parquet)</v>
+            <v>Sand filling</v>
+          </cell>
+          <cell r="B124">
+            <v>30</v>
+          </cell>
+          <cell r="H124" t="str">
+            <v>sand</v>
+          </cell>
+          <cell r="I124">
+            <v>2000</v>
+          </cell>
+          <cell r="J124" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K124">
+            <v>1.4E-2</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>Solid Spruce / Fir / Larch</v>
+            <v>Sand lime brick</v>
           </cell>
           <cell r="B125">
-            <v>30</v>
+            <v>60</v>
           </cell>
           <cell r="H125" t="str">
-            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+            <v>sand-lime brick</v>
           </cell>
           <cell r="I125">
-            <v>485</v>
+            <v>1400</v>
           </cell>
           <cell r="J125" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K125">
-            <v>0.125</v>
+            <v>0.13800000000000001</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>Solid Spruce / Fir / Larch (parquet)</v>
+            <v>Sand-lime brick</v>
           </cell>
           <cell r="B126">
-            <v>30</v>
+            <v>60</v>
           </cell>
           <cell r="H126" t="str">
-            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+            <v>sand-lime brick</v>
           </cell>
           <cell r="I126">
-            <v>485</v>
+            <v>1400</v>
           </cell>
           <cell r="J126" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K126">
-            <v>0.125</v>
+            <v>0.13800000000000001</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>Solid wood (m³)</v>
+            <v>Solid Oak (parquet)</v>
+          </cell>
+          <cell r="H127" t="str">
+            <v>Solid beech / oak, kiln dried, planed</v>
+          </cell>
+          <cell r="I127">
+            <v>675</v>
+          </cell>
+          <cell r="J127" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K127">
+            <v>0.126</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>Solid wood (spruce), raw</v>
+            <v>Solid Spruce / Fir / Larch</v>
+          </cell>
+          <cell r="B128">
+            <v>30</v>
+          </cell>
+          <cell r="H128" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I128">
+            <v>485</v>
+          </cell>
+          <cell r="J128" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K128">
+            <v>0.125</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>Steel (filled with quarry sand) - volume (m³)</v>
+            <v>Solid Spruce / Fir / Larch (parquet)</v>
+          </cell>
+          <cell r="B129">
+            <v>30</v>
+          </cell>
+          <cell r="H129" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I129">
+            <v>485</v>
+          </cell>
+          <cell r="J129" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K129">
+            <v>0.125</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>Steel (filled with sand) (m³)</v>
+            <v>Solid wood (m³)</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>Stucco</v>
+            <v>Solid wood (spruce), raw</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>Substrate for vegetation</v>
+            <v>Steel (filled with quarry sand) - volume (m³)</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>Sun care Coating</v>
+            <v>Steel (filled with sand) (m³)</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>Suspension ceiling lining with intermediate rock wool insulation (0.06 m)</v>
+            <v>Stucco</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>Synthetic rubber mat with nubs</v>
+            <v>Substrate for vegetation</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>Tile / brick &amp; timber construction, battens</v>
+            <v>Sun care Coating</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>Timber battens</v>
-          </cell>
-          <cell r="B137">
-            <v>30</v>
+            <v>Suspension ceiling lining with intermediate rock wool insulation (0.06 m)</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>Timber battens (30/60)</v>
-          </cell>
-          <cell r="B138">
-            <v>30</v>
-          </cell>
-          <cell r="H138" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I138">
-            <v>470</v>
-          </cell>
-          <cell r="J138" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K138">
-            <v>0.44600000000000001</v>
+            <v>Synthetic rubber mat with nubs</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>Timber battens (40/80) with intermediate rock wool insulation (60 kg/m³)</v>
-          </cell>
-          <cell r="B139">
-            <v>30</v>
-          </cell>
-          <cell r="H139" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I139">
-            <v>470</v>
-          </cell>
-          <cell r="J139" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K139">
-            <v>0.44600000000000001</v>
+            <v>Tile / brick &amp; timber construction, battens</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v xml:space="preserve">Timber battens (50/80) with intermediate rock wool insulation </v>
+            <v>Timber battens</v>
           </cell>
           <cell r="B140">
             <v>30</v>
           </cell>
-          <cell r="H140" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I140">
-            <v>470</v>
-          </cell>
-          <cell r="J140" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K140">
-            <v>0.44600000000000001</v>
-          </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>Timber battens (60/130)</v>
+            <v>Timber battens (30/60)</v>
           </cell>
           <cell r="B141">
             <v>30</v>
@@ -5717,7 +4740,7 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>Timber battens (60/30)</v>
+            <v>Timber battens (40/80) with intermediate rock wool insulation (60 kg/m³)</v>
           </cell>
           <cell r="B142">
             <v>30</v>
@@ -5737,7 +4760,7 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>Timber battens and air cavity</v>
+            <v xml:space="preserve">Timber battens (50/80) with intermediate rock wool insulation </v>
           </cell>
           <cell r="B143">
             <v>30</v>
@@ -5757,7 +4780,7 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>Timber battens and counter battens</v>
+            <v>Timber battens (60/130)</v>
           </cell>
           <cell r="B144">
             <v>30</v>
@@ -5777,7 +4800,7 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v xml:space="preserve">Timber battens and counter battens with air cavity </v>
+            <v>Timber battens (60/30)</v>
           </cell>
           <cell r="B145">
             <v>30</v>
@@ -5797,7 +4820,7 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v xml:space="preserve">Timber battens and counter battens with intermediate air space </v>
+            <v>Timber battens and air cavity</v>
           </cell>
           <cell r="B146">
             <v>30</v>
@@ -5817,7 +4840,7 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>Timber battens with intermediate</v>
+            <v>Timber battens and counter battens</v>
           </cell>
           <cell r="B147">
             <v>30</v>
@@ -5837,7 +4860,7 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v xml:space="preserve">Timber battens with intermediate air space  </v>
+            <v xml:space="preserve">Timber battens and counter battens with air cavity </v>
           </cell>
           <cell r="B148">
             <v>30</v>
@@ -5857,7 +4880,7 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v xml:space="preserve">Timber battens with intermediate glass wool </v>
+            <v xml:space="preserve">Timber battens and counter battens with intermediate air space </v>
           </cell>
           <cell r="B149">
             <v>30</v>
@@ -5877,7 +4900,7 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>Timber battens with intermediate glass wool mat (30 kg/m³)</v>
+            <v>Timber battens with intermediate</v>
           </cell>
           <cell r="B150">
             <v>30</v>
@@ -5897,7 +4920,7 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>Timber battens with intermediate insulation</v>
+            <v xml:space="preserve">Timber battens with intermediate air space  </v>
           </cell>
           <cell r="B151">
             <v>30</v>
@@ -5917,7 +4940,7 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>Timber battens with intermediate insulation (0.3 m) and installation gap (0.05 m)</v>
+            <v xml:space="preserve">Timber battens with intermediate glass wool </v>
           </cell>
           <cell r="B152">
             <v>30</v>
@@ -5937,7 +4960,7 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>Timber battens with intermediate rock wool insulation</v>
+            <v>Timber battens with intermediate glass wool mat (30 kg/m³)</v>
           </cell>
           <cell r="B153">
             <v>30</v>
@@ -5957,7 +4980,7 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v xml:space="preserve">Timber battens with rock wool (60 kg/m³ </v>
+            <v>Timber battens with intermediate insulation</v>
           </cell>
           <cell r="B154">
             <v>30</v>
@@ -5977,7 +5000,7 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>Timber battens with sand fill</v>
+            <v>Timber battens with intermediate insulation (0.3 m) and installation gap (0.05 m)</v>
           </cell>
           <cell r="B155">
             <v>30</v>
@@ -5997,7 +5020,7 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>Timber cladding</v>
+            <v>Timber battens with intermediate rock wool insulation</v>
           </cell>
           <cell r="B156">
             <v>30</v>
@@ -6017,7 +5040,7 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>Timber frame construction</v>
+            <v xml:space="preserve">Timber battens with rock wool (60 kg/m³ </v>
           </cell>
           <cell r="B157">
             <v>30</v>
@@ -6037,7 +5060,7 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v xml:space="preserve">Timber frame construction 60/320 with intermediate cellulose insulation, timber ratio 12% </v>
+            <v>Timber battens with sand fill</v>
           </cell>
           <cell r="B158">
             <v>30</v>
@@ -6057,7 +5080,7 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>Timber frame construction with cellulose insulation (50 kg/m3)</v>
+            <v>Timber cladding</v>
           </cell>
           <cell r="B159">
             <v>30</v>
@@ -6077,7 +5100,7 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>Timber frame construction with intermediate cellulose fibre insulation</v>
+            <v>Timber frame construction</v>
           </cell>
           <cell r="B160">
             <v>30</v>
@@ -6097,7 +5120,7 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>timber frame construction with intermediate glass wool insulation</v>
+            <v xml:space="preserve">Timber frame construction 60/320 with intermediate cellulose insulation, timber ratio 12% </v>
           </cell>
           <cell r="B161">
             <v>30</v>
@@ -6117,7 +5140,7 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>Timber frame construction with intermediate insulation (glass wool) (30 kg/m³)</v>
+            <v>Timber frame construction with cellulose insulation (50 kg/m3)</v>
           </cell>
           <cell r="B162">
             <v>30</v>
@@ -6137,7 +5160,7 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v xml:space="preserve">Timber frame construction with intermediate rock wool insulation (60 kg/m³) </v>
+            <v>Timber frame construction with intermediate cellulose fibre insulation</v>
           </cell>
           <cell r="B163">
             <v>30</v>
@@ -6157,41 +5180,555 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>Vapour barrier of polyethylene (PE)</v>
+            <v>timber frame construction with intermediate glass wool insulation</v>
           </cell>
           <cell r="B164">
             <v>30</v>
           </cell>
           <cell r="H164" t="str">
-            <v>Polyethylene (PE) vapor barrier</v>
+            <v>Glued laminated timber, UF bonded, dry area</v>
           </cell>
           <cell r="I164">
-            <v>920</v>
+            <v>470</v>
           </cell>
           <cell r="J164" t="str">
             <v xml:space="preserve">kg </v>
           </cell>
           <cell r="K164">
-            <v>5.33</v>
+            <v>0.44600000000000001</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>Vapour barrier of polypropylene nonwoven</v>
+            <v>Timber frame construction with intermediate insulation (glass wool) (30 kg/m³)</v>
+          </cell>
+          <cell r="B165">
+            <v>30</v>
+          </cell>
+          <cell r="H165" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I165">
+            <v>470</v>
+          </cell>
+          <cell r="J165" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K165">
+            <v>0.44600000000000001</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>Wind paper</v>
+            <v xml:space="preserve">Timber frame construction with intermediate rock wool insulation (60 kg/m³) </v>
+          </cell>
+          <cell r="B166">
+            <v>30</v>
+          </cell>
+          <cell r="H166" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I166">
+            <v>470</v>
+          </cell>
+          <cell r="J166" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K166">
+            <v>0.44600000000000001</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
+            <v>Vapour barrier of polyethylene (PE)</v>
+          </cell>
+          <cell r="B167">
+            <v>30</v>
+          </cell>
+          <cell r="H167" t="str">
+            <v>Polyethylene (PE) vapor barrier</v>
+          </cell>
+          <cell r="I167">
+            <v>920</v>
+          </cell>
+          <cell r="J167" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K167">
+            <v>5.33</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>Vapour barrier of polypropylene nonwoven</v>
+          </cell>
+          <cell r="B168">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>Wind paper</v>
+          </cell>
+          <cell r="B169">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
             <v>Wood wool board, cement bonded</v>
+          </cell>
+          <cell r="B170">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>Wood, aluminum clad</v>
+          </cell>
+          <cell r="B171">
+            <v>30</v>
+          </cell>
+          <cell r="H171" t="str">
+            <v>Exterior door, wood, aluminium-clad</v>
+          </cell>
+          <cell r="I171" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J171" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K171">
+            <v>77.599999999999994</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>Metal-glass insert</v>
+          </cell>
+          <cell r="B172">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v xml:space="preserve">Metal with glass insert </v>
+          </cell>
+          <cell r="B173">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v xml:space="preserve">Wood, glass insert </v>
+          </cell>
+          <cell r="B174">
+            <v>30</v>
+          </cell>
+          <cell r="H174" t="str">
+            <v>Exterior door, wood, glass insert</v>
+          </cell>
+          <cell r="I174" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J174" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K174">
+            <v>97.7</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>Wood/ aluminium, triple glazing</v>
+          </cell>
+          <cell r="B175">
+            <v>30</v>
+          </cell>
+          <cell r="H175" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I175">
+            <v>83.4</v>
+          </cell>
+          <cell r="J175" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K175">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>30</v>
+          </cell>
+          <cell r="H176" t="str">
+            <v>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</v>
+          </cell>
+          <cell r="I176" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J176" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K176">
+            <v>66.8</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>Wood/ aluminium, double glazing</v>
+          </cell>
+          <cell r="B177">
+            <v>30</v>
+          </cell>
+          <cell r="H177" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I177">
+            <v>83.4</v>
+          </cell>
+          <cell r="J177" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K177">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>30</v>
+          </cell>
+          <cell r="H178" t="str">
+            <v>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</v>
+          </cell>
+          <cell r="I178" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J178" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K178">
+            <v>43.7</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>Wood/ aluminium, transparent insulation</v>
+          </cell>
+          <cell r="B179">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>Aluminium overhead light</v>
+          </cell>
+          <cell r="B180">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>Wood, triple glazing</v>
+          </cell>
+          <cell r="B181">
+            <v>30</v>
+          </cell>
+          <cell r="H181" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I181">
+            <v>83.4</v>
+          </cell>
+          <cell r="J181" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K181">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>30</v>
+          </cell>
+          <cell r="H182" t="str">
+            <v>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</v>
+          </cell>
+          <cell r="I182" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J182" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K182">
+            <v>66.8</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v xml:space="preserve">Wood, double glazing </v>
+          </cell>
+          <cell r="H183" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I183">
+            <v>83.4</v>
+          </cell>
+          <cell r="J183" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K183">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="H184" t="str">
+            <v>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</v>
+          </cell>
+          <cell r="I184" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J184" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K184">
+            <v>43.7</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v xml:space="preserve">Plastic, double glazing </v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>Electricity</v>
+          </cell>
+          <cell r="H186" t="str">
+            <v>'market for electricity, low voltage'</v>
+          </cell>
+          <cell r="J186" t="str">
+            <v>kWh</v>
+          </cell>
+          <cell r="K186">
+            <v>4.4990000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (135 kW)</v>
+          </cell>
+          <cell r="H187" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J187" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K187">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>Combined with central heat generator: District heating</v>
+          </cell>
+          <cell r="H188" t="str">
+            <v>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</v>
+          </cell>
+          <cell r="J188" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K188">
+            <v>1.85E-4</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v xml:space="preserve">Central hot water only, electric heat pump </v>
+          </cell>
+          <cell r="H189" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J189" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K189">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (16.7 kW)</v>
+          </cell>
+          <cell r="H190" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J190" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K190">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (60 kW)</v>
+          </cell>
+          <cell r="H191" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J191" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K191">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>Combined with central heat generator: Wood pellet heating (67.2 kW)</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>Central, hot water only: Modulating condensing boiler (kW 70)</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (24.9 kW)</v>
+          </cell>
+          <cell r="H194" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J194" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K194">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>Combined with central heat generator: Electric heat pump, air water (4.2 kW)</v>
+          </cell>
+          <cell r="H195" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J195" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K195">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>Near/ district heating from cogeneration</v>
+          </cell>
+          <cell r="H196" t="str">
+            <v>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</v>
+          </cell>
+          <cell r="J196" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K196">
+            <v>1.85E-4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (40.8 kW)</v>
+          </cell>
+          <cell r="H197" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J197" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K197">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (28.1 kW)</v>
+          </cell>
+          <cell r="H198" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J198" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K198">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>wood chips</v>
+          </cell>
+          <cell r="H199" t="str">
+            <v>heat production, wood chips from industry, at furnace 300kW, state-of-the-art 2014' (megajoule, CH, None)</v>
+          </cell>
+          <cell r="K199">
+            <v>7.1700000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>lorry</v>
+          </cell>
+          <cell r="H200" t="str">
+            <v>'market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%' (ton kilometer, CH, None)</v>
+          </cell>
+          <cell r="K200">
+            <v>0.11509999999999999</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Building_info_Viola"/>
+      <sheetName val="MI_heating_LCAdata"/>
+      <sheetName val="Construction_Heating"/>
+      <sheetName val="Thickness_Viola"/>
+      <sheetName val="U-Values_components"/>
+      <sheetName val="U-Values_final"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="17">
+          <cell r="C17">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>350.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="24">
+          <cell r="B24">
+            <v>73.099999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6460,22 +5997,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6507,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6539,7 +6076,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6087,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6558,7 +6095,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6566,7 +6103,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6580,7 +6117,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6588,7 +6125,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6596,7 +6133,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6607,7 +6144,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6615,7 +6152,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6623,7 +6160,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6631,7 +6168,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6639,7 +6176,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6647,7 +6184,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6655,7 +6192,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6666,7 +6203,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6211,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6682,7 +6219,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6690,7 +6227,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6698,7 +6235,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6706,7 +6243,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6714,7 +6251,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6728,7 +6265,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6736,7 +6273,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6747,7 +6284,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6755,7 +6292,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6763,7 +6300,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6772,6 +6309,51 @@
       </c>
       <c r="D28">
         <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>164.39</v>
       </c>
     </row>
   </sheetData>
@@ -6782,19 +6364,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="A33:B33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6802,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6810,7 +6392,7 @@
         <v>190.95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6818,7 +6400,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6826,7 +6408,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6834,7 +6416,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6842,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6850,7 +6432,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -6858,7 +6440,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6866,7 +6448,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6874,7 +6456,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6882,7 +6464,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -6890,7 +6472,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -6898,7 +6480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6906,7 +6488,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -6914,7 +6496,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -6922,7 +6504,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6930,7 +6512,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6938,7 +6520,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6946,7 +6528,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -6954,7 +6536,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -6962,7 +6544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6970,7 +6552,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6978,7 +6560,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -6986,7 +6568,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -6994,7 +6576,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -7002,7 +6584,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -7010,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -7018,7 +6600,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -7026,7 +6608,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -7034,7 +6616,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -7042,7 +6624,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -7050,7 +6632,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -7058,7 +6640,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -7066,7 +6648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7074,7 +6656,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -7082,7 +6664,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -7090,7 +6672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7098,7 +6680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -7106,7 +6688,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7114,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7122,7 +6704,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -7130,7 +6712,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -7138,7 +6720,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -7146,7 +6728,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +6736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -7162,7 +6744,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -7170,7 +6752,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -7178,7 +6760,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -7186,7 +6768,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -7194,12 +6776,54 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
       <c r="B68">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>164.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7209,19 +6833,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -7229,7 +6853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -7243,7 +6867,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -7257,8 +6881,11 @@
       <c r="I3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7274,7 +6901,7 @@
         <v>190.95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7308,8 +6935,12 @@
         <f t="shared" ref="I6" si="0">B6*F6*H6*B$1/C6/B$1</f>
         <v>0.30833333333333335</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <f>F6*B6*B$5*B$1/C6/1000</f>
+        <v>28.2606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7343,8 +6974,12 @@
         <f>B7*F7*H7*B$1/C7/B$1</f>
         <v>0.12063333333333334</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <f t="shared" ref="J7:J9" si="1">F7*B7*B$5*B$1/C7/1000</f>
+        <v>98.721149999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.22</v>
       </c>
@@ -7370,8 +7005,12 @@
         <f>B8*F8*H8*B$1/C8/B$1</f>
         <v>0.20005333333333336</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.3607200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -7406,15 +7045,19 @@
         <f>B9*F9*H9*B$1/C9/B$1</f>
         <v>0.14208333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>10.50225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I10" s="2">
         <f>SUM(I6:I9)</f>
         <v>0.77110333333333347</v>
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7422,7 +7065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -7430,7 +7073,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -7465,8 +7108,12 @@
         <f>B14*F14*H14*B$1/C14/B$1</f>
         <v>0.38541666666666669</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <f>F14*B14*B$13*B$1/C14/1000</f>
+        <v>27.583500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7486,7 +7133,7 @@
         <v>2350</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="1">E15</f>
+        <f t="shared" ref="F15:F19" si="2">E15</f>
         <v>2350</v>
       </c>
       <c r="G15" t="str">
@@ -7498,11 +7145,15 @@
         <v>1.4E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I19" si="2">B15*F15*H15*B$1/C15/B$1</f>
+        <f t="shared" ref="I15:I19" si="3">B15*F15*H15*B$1/C15/B$1</f>
         <v>0.12063333333333334</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <f t="shared" ref="J15:J19" si="4">F15*B15*B$5*B$1/C15/1000</f>
+        <v>98.721149999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.22</v>
       </c>
@@ -7525,13 +7176,17 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20005333333333336</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>3.3607200000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>0.18</v>
@@ -7549,7 +7204,7 @@
         <v>30</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G17" t="str">
@@ -7561,11 +7216,15 @@
         <v>7.52</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3535999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>2.0622599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -7585,7 +7244,7 @@
         <v>485</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="G18" t="str">
@@ -7597,14 +7256,18 @@
         <v>0.125</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0312499999999999E-2</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>2.7783224999999998</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -7623,7 +7286,7 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="G19" t="str">
@@ -7635,18 +7298,22 @@
         <v>5.33</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.842666666666667E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>6.1103999999999993E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I20" s="2">
         <f>SUM(I14:I19)</f>
         <v>2.0928584999999997</v>
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7654,7 +7321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7662,7 +7329,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -7697,8 +7364,12 @@
         <f>B24*F24*H24*B$1/C24/B$1</f>
         <v>0.67597750000000012</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <f>F24*B24*B$23*B$1/C24/1000</f>
+        <v>30.779594999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -7718,7 +7389,7 @@
         <v>1850</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F30" si="3">E25</f>
+        <f t="shared" ref="F25:F30" si="5">E25</f>
         <v>1850</v>
       </c>
       <c r="G25" t="str">
@@ -7730,11 +7401,15 @@
         <v>0.125</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I30" si="4">B25*F25*H25*B$1/C25/B$1</f>
+        <f t="shared" ref="I25:I30" si="6">B25*F25*H25*B$1/C25/B$1</f>
         <v>0.38541666666666669</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <f t="shared" ref="J25:J30" si="7">F25*B25*B$23*B$1/C25/1000</f>
+        <v>73.426500000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -7765,11 +7440,15 @@
         <v>7.64</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22919999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0.71441999999999983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -7789,7 +7468,7 @@
         <v>485</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>485</v>
       </c>
       <c r="G27" t="str">
@@ -7801,11 +7480,15 @@
         <v>0.125</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0312499999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>5.7748949999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -7825,7 +7508,7 @@
         <v>470</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>470</v>
       </c>
       <c r="G28" t="str">
@@ -7840,11 +7523,15 @@
         <f>B28*F28*H28*B$1/C28/B$1*0.08</f>
         <v>3.3539199999999998E-2</v>
       </c>
-      <c r="J28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <f>F28*B28*B$23*B$1/C28/1000*0.08</f>
+        <v>1.7908127999999999</v>
+      </c>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.06</v>
       </c>
@@ -7852,13 +7539,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>2000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="G29" t="s">
@@ -7871,11 +7558,15 @@
         <f>B29*F29*H29*B$1/C29/B$1*0.92</f>
         <v>5.1520000000000003E-2</v>
       </c>
-      <c r="J29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <f>F29*B29*B$23*B$1/C29/1000*0.92</f>
+        <v>87.63552</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7895,7 +7586,7 @@
         <v>920</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>920</v>
       </c>
       <c r="G30" t="str">
@@ -7907,18 +7598,22 @@
         <v>5.33</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2690666666666666E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0.14605919999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I31" s="2">
         <f>SUM(I24:I30)</f>
         <v>1.4386565333333337</v>
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -7926,7 +7621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -7934,7 +7629,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -7969,8 +7664,12 @@
         <f>B35*F35*H35*B$1/C35/B$1</f>
         <v>0.14338916666666671</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <f>F35*B35*B$34*B$1/C35/1000</f>
+        <v>6.1194000000000024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -7990,7 +7689,7 @@
         <v>685</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F41" si="5">E36</f>
+        <f t="shared" ref="F36:F41" si="8">E36</f>
         <v>685</v>
       </c>
       <c r="G36" t="str">
@@ -8005,8 +7704,12 @@
         <f>B36*F36*H36*B$1/C36/B$1</f>
         <v>0.52242666666666659</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <f t="shared" ref="J36:J41" si="9">F36*B36*B$34*B$1/C36/1000</f>
+        <v>11.212079999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -8026,7 +7729,7 @@
         <v>925</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>925</v>
       </c>
       <c r="G37" t="str">
@@ -8038,11 +7741,15 @@
         <v>0.155</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37" si="6">B37*F37*H37*B$1/C37/B$1</f>
+        <f t="shared" ref="I37" si="10">B37*F37*H37*B$1/C37/B$1</f>
         <v>4.779166666666667E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>6.8819999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -8062,7 +7769,7 @@
         <v>470</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>470</v>
       </c>
       <c r="G38" t="str">
@@ -8074,14 +7781,18 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="I38">
-        <f>B38*F38*H38*B$1/C38/B$1*J38</f>
+        <f>B38*F38*H38*B$1/C38/B$1*K38</f>
         <v>0.3633413333333334</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38">
+        <f>F38*B38*B$34*B$1/C38/1000*K38</f>
+        <v>18.183360000000004</v>
+      </c>
+      <c r="K38" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.26</v>
       </c>
@@ -8089,7 +7800,7 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>60</v>
@@ -8104,16 +7815,20 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I39">
-        <f>B39*F39*H39*B$1/C39/B$1*J39</f>
+        <f>B39*F39*H39*B$1/C39/B$1*K39</f>
         <v>0.47008000000000005</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39">
+        <f t="shared" ref="J39:J42" si="11">F39*B39*B$34*B$1/C39/1000*K39</f>
+        <v>9.2851200000000009</v>
+      </c>
+      <c r="K39" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>0.02</v>
@@ -8131,7 +7846,7 @@
         <v>485</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>485</v>
       </c>
       <c r="G40" t="str">
@@ -8146,9 +7861,15 @@
         <f>B40*F40*H40*B$1/C40/B$1</f>
         <v>4.041666666666667E-2</v>
       </c>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <f t="shared" si="11"/>
+        <v>7.216800000000001</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -8167,7 +7888,7 @@
         <v>470</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>470</v>
       </c>
       <c r="G41" t="str">
@@ -8179,14 +7900,18 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="I41">
-        <f>B41*F41*H41*B$1/C41/B$1*J41</f>
+        <f>B41*F41*H41*B$1/C41/B$1*K41</f>
         <v>5.5898666666666666E-2</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>2.7974400000000004</v>
+      </c>
+      <c r="K41" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.08</v>
       </c>
@@ -8194,7 +7919,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>60</v>
@@ -8209,21 +7934,25 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I42">
-        <f>B42*F42*H42*B$1/C42/B$1*J42</f>
+        <f>B42*F42*H42*B$1/C42/B$1*K42</f>
         <v>0.16271999999999998</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42">
+        <f t="shared" si="11"/>
+        <v>3.2140799999999996</v>
+      </c>
+      <c r="K42" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I43" s="2">
         <f>SUM(I35:I41)</f>
         <v>1.6433441666666668</v>
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8231,7 +7960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -8239,7 +7968,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -8274,8 +8003,12 @@
         <f>B47*F47*H47*B$1/C47/B$1</f>
         <v>0.30599999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <f>F47*B47*B$46*B$1/C47/1000</f>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -8295,7 +8028,7 @@
         <v>2350</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:F52" si="7">E48</f>
+        <f t="shared" ref="F48:F52" si="12">E48</f>
         <v>2350</v>
       </c>
       <c r="G48" t="str">
@@ -8307,11 +8040,15 @@
         <v>1.4E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48:I52" si="8">B48*F48*H48*B$1/C48/B$1</f>
+        <f t="shared" ref="I48:I52" si="13">B48*F48*H48*B$1/C48/B$1</f>
         <v>0.13708333333333333</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <f t="shared" ref="J48:J52" si="14">F48*B48*B$46*B$1/C48/1000</f>
+        <v>152.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.25</v>
       </c>
@@ -8337,8 +8074,12 @@
         <f>B49*F49*H49*B$1/C49/B$1</f>
         <v>0.17050000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <f t="shared" si="14"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -8358,7 +8099,7 @@
         <v>2150</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2150</v>
       </c>
       <c r="G50" t="str">
@@ -8370,11 +8111,15 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.29598333333333338</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <f t="shared" si="14"/>
+        <v>78.260000000000019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -8394,7 +8139,7 @@
         <v>30</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="G51" t="str">
@@ -8409,11 +8154,12 @@
         <f>B51*F51*H51*B$1/C51/B$1</f>
         <v>3.4799999999999995</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <f t="shared" si="14"/>
+        <v>3.7439999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -8433,7 +8179,7 @@
         <v>920</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>920</v>
       </c>
       <c r="G52" t="str">
@@ -8445,18 +8191,22 @@
         <v>5.53</v>
       </c>
       <c r="I52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.16958666666666666</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <f t="shared" si="14"/>
+        <v>0.47840000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <f>SUM(I47:I52)</f>
         <v>4.5591533333333327</v>
       </c>
       <c r="J53" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8464,7 +8214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8472,7 +8222,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -8507,15 +8257,19 @@
         <f>B57*F57*H57*B$1/C57/B$1</f>
         <v>0.15353333333333335</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <f>F57*B57*B$56*B$1/C57/1000</f>
+        <v>84.684600000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I58" s="2">
         <f>SUM(I57:I57)</f>
         <v>0.15353333333333335</v>
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -8523,7 +8277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8531,7 +8285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -8566,15 +8320,19 @@
         <f>B62*F62*H62*B$1/C62/B$1</f>
         <v>0.48300000000000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <f>F62*B62*B$61*B$1/C62/1000</f>
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I63" s="2">
         <f>SUM(I62:I62)</f>
         <v>0.48300000000000004</v>
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -8582,7 +8340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8590,7 +8348,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -8625,8 +8383,12 @@
         <f>B67*F67*H67*B$1/C67/B$1</f>
         <v>7.1687499999999987E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <f>F67*B67*B$66*B$1/C67/1000</f>
+        <v>9.4072499999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -8646,7 +8408,7 @@
         <v>925</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F70" si="9">E68</f>
+        <f t="shared" ref="F68:F70" si="15">E68</f>
         <v>925</v>
       </c>
       <c r="G68" t="str">
@@ -8658,11 +8420,15 @@
         <v>0.155</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68" si="10">B68*F68*H68*B$1/C68/B$1</f>
+        <f t="shared" ref="I68" si="16">B68*F68*H68*B$1/C68/B$1</f>
         <v>7.1687499999999987E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <f t="shared" ref="J68:J71" si="17">F68*B68*B$66*B$1/C68/1000</f>
+        <v>9.4072499999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.08</v>
       </c>
@@ -8670,7 +8436,7 @@
         <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <v>60</v>
@@ -8688,9 +8454,12 @@
         <f>B69*F69*H69*B$1/C69/B$1*0.2</f>
         <v>3.6159999999999991E-2</v>
       </c>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <f t="shared" si="17"/>
+        <v>3.2544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -8710,7 +8479,7 @@
         <v>470</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>470</v>
       </c>
       <c r="G70" t="str">
@@ -8725,11 +8494,15 @@
         <f>B70*F70*H70*B$1/C70/B$1*0.2</f>
         <v>0.24455666666666667</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70">
+        <f>F70*B70*B$66*B$1/C70/1000*K70</f>
+        <v>11.153100000000002</v>
+      </c>
+      <c r="K70" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.08</v>
       </c>
@@ -8737,7 +8510,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71">
         <v>60</v>
@@ -8755,16 +8528,19 @@
         <f>B71*F71*H71*B$1/C71/B$1*0.2</f>
         <v>3.6159999999999991E-2</v>
       </c>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <f t="shared" si="17"/>
+        <v>3.2544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I72" s="2">
         <f>SUM(I67:I71)</f>
         <v>0.46025166666666661</v>
       </c>
       <c r="J72" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -8772,7 +8548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -8780,7 +8556,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -8815,8 +8591,12 @@
         <f>B76*F76*H76*B$1/C76/B$1</f>
         <v>0.14338916666666671</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <f>F76*B76*B$75*B$1/C76/1000</f>
+        <v>4.7211500000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -8847,11 +8627,15 @@
         <v>5.43</v>
       </c>
       <c r="I77">
-        <f t="shared" ref="I77:I82" si="11">B77*F77*H77*B$1/C77/B$1</f>
+        <f t="shared" ref="I77:I82" si="18">B77*F77*H77*B$1/C77/B$1</f>
         <v>0.49774999999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <f t="shared" ref="J77:J83" si="19">F77*B77*B$75*B$1/C77/1000</f>
+        <v>1.5785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -8859,7 +8643,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E78">
         <v>685</v>
@@ -8874,11 +8658,15 @@
         <v>1.04</v>
       </c>
       <c r="I78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.59366666666666679</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <f t="shared" si="19"/>
+        <v>9.8297500000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -8898,7 +8686,7 @@
         <v>470</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F82" si="12">E79</f>
+        <f t="shared" ref="F79:F82" si="20">E79</f>
         <v>470</v>
       </c>
       <c r="G79" t="str">
@@ -8913,11 +8701,15 @@
         <f>B79*F79*H79*B$1/C79/B$1*0.2</f>
         <v>0.3633413333333334</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79">
+        <f t="shared" si="19"/>
+        <v>70.142800000000008</v>
+      </c>
+      <c r="K79" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0.08</v>
       </c>
@@ -8925,7 +8717,7 @@
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80">
         <v>60</v>
@@ -8940,14 +8732,18 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I80">
-        <f>B80*F80*H80*B$1/C80/B$1*J80</f>
+        <f>B80*F80*H80*B$1/C80/B$1*K80</f>
         <v>0.16271999999999998</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80">
+        <f t="shared" si="19"/>
+        <v>2.7551999999999999</v>
+      </c>
+      <c r="K80" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -8967,7 +8763,7 @@
         <v>470</v>
       </c>
       <c r="F81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>470</v>
       </c>
       <c r="G81" t="str">
@@ -8979,11 +8775,18 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="I81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.4891133333333334</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J81">
+        <f t="shared" si="19"/>
+        <v>18.884600000000002</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -9003,7 +8806,7 @@
         <v>470</v>
       </c>
       <c r="F82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>470</v>
       </c>
       <c r="G82" t="str">
@@ -9015,11 +8818,18 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="I82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.55898666666666663</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J82">
+        <f t="shared" si="19"/>
+        <v>21.5824</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0.08</v>
       </c>
@@ -9027,7 +8837,7 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <v>60</v>
@@ -9042,28 +8852,258 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I83">
-        <f>B83*F83*H83*B$1/C83/B$1*J83</f>
+        <f>B83*F83*H83*B$1/C83/B$1*K83</f>
         <v>0.16271999999999998</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83">
+        <f t="shared" si="19"/>
+        <v>2.7551999999999999</v>
+      </c>
+      <c r="K83" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I84" s="2">
         <f>SUM(I76:I83)</f>
         <v>2.9716871666666673</v>
       </c>
       <c r="J84" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
       <c r="B86" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="9">
+        <v>158.97999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88">
+        <f>INDEX('[1]Component wise inventories'!B$2:B$190,MATCH($A88,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>30</v>
+      </c>
+      <c r="D88" t="str">
+        <f>INDEX('[1]Component wise inventories'!H$2:H$190,MATCH($A88,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+      </c>
+      <c r="E88">
+        <f>INDEX('[1]Component wise inventories'!I$2:I$190,MATCH($A88,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>83.4</v>
+      </c>
+      <c r="F88">
+        <f>E88</f>
+        <v>83.4</v>
+      </c>
+      <c r="G88" t="str">
+        <f>INDEX('[1]Component wise inventories'!J$2:J$190,MATCH($A88,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>kg</v>
+      </c>
+      <c r="H88">
+        <f>INDEX('[1]Component wise inventories'!K$2:K$190,MATCH($A88,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="I88">
+        <f>F88*H88*B$1/C88/B$1*K88</f>
+        <v>7.6283199999999995E-2</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" s="10">
+        <v>58</v>
+      </c>
+      <c r="I89">
+        <f>H89*B$1/C89/B$1*K89</f>
+        <v>1.5466666666666669</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="I90" s="2">
+        <f>SUM(I88:I89)</f>
+        <v>1.6229498666666669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93">
+        <f>[2]Building_info_Viola!$C$17</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94">
+        <f>[2]Building_info_Viola!$C$61</f>
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" t="str">
+        <f>INDEX('[1]Component wise inventories'!H$2:H$190,MATCH($A95,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>'market for electricity, low voltage'</v>
+      </c>
+      <c r="E95">
+        <f>INDEX('[1]Component wise inventories'!I$2:I$190,MATCH($A95,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>E95</f>
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <f>INDEX('[1]Component wise inventories'!J$2:J$190,MATCH($A95,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>kWh</v>
+      </c>
+      <c r="H95">
+        <f>INDEX('[1]Component wise inventories'!K$2:K$190,MATCH($A95,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <v>4.4990000000000002E-2</v>
+      </c>
+      <c r="I95" s="2">
+        <f>H95*B93*3500/B94</f>
+        <v>0.89877283105022843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99">
+        <f>[2]Construction_Heating!$B$24</f>
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" t="str">
+        <f>INDEX('[1]Component wise inventories'!H$2:H$200,MATCH($B100,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>heat production, wood chips from industry, at furnace 300kW, state-of-the-art 2014' (megajoule, CH, None)</v>
+      </c>
+      <c r="E100">
+        <f>INDEX('[1]Component wise inventories'!I$2:I$200,MATCH($B100,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>E100</f>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f>INDEX('[1]Component wise inventories'!J$2:J$200,MATCH($B100,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>INDEX('[1]Component wise inventories'!K$2:K$200,MATCH($B100,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="I100" s="2">
+        <f>H100*B99</f>
+        <v>0.52412700000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
-        <v>49</v>
+      <c r="J103">
+        <f>SUM(J6:J101)</f>
+        <v>1049.9678649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" t="str">
+        <f>INDEX('[1]Component wise inventories'!H$2:H$200,MATCH($B104,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>'market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%' (ton kilometer, CH, None)</v>
+      </c>
+      <c r="E104">
+        <f>INDEX('[1]Component wise inventories'!I$2:I$200,MATCH($B104,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f>E104</f>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f>INDEX('[1]Component wise inventories'!J$2:J$200,MATCH($B104,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>INDEX('[1]Component wise inventories'!K$2:K$200,MATCH($B104,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="I104" s="11">
+        <f>J103*50*2*H104/B$1/B94</f>
+        <v>0.57482544354066778</v>
       </c>
     </row>
   </sheetData>
@@ -9073,24 +9113,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9102,9 +9147,9 @@
         <v>0.77110333333333347</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>2.87</v>
@@ -9114,9 +9159,9 @@
         <v>3.5315150333333332</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4">
         <v>6.02</v>
@@ -9126,9 +9171,9 @@
         <v>6.2024974999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4">
         <v>1.37</v>
@@ -9138,7 +9183,7 @@
         <v>1.0967849999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9150,74 +9195,79 @@
         <v>2.9716871666666673</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4">
         <v>1.54</v>
       </c>
       <c r="C7" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4">
         <v>0.52</v>
       </c>
       <c r="C8" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <f>'KBOB inventories'!I95</f>
+        <v>0.89877283105022843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4">
         <v>0.70799999999999996</v>
       </c>
       <c r="C9" s="4">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <f>'KBOB inventories'!I104</f>
+        <v>0.57482544354066778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4">
         <v>1.19</v>
       </c>
-      <c r="C10">
-        <v>1.901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <v>0.76700000000000002</v>
       </c>
       <c r="C11" s="4">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C12">
-        <v>0.87</v>
+      <c r="C12" s="4">
+        <f>'KBOB inventories'!I100</f>
+        <v>0.52412700000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>